--- a/Experiments/Top-k/Top-k Results.xlsx
+++ b/Experiments/Top-k/Top-k Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Experiments\Top-k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E8989-625B-4CC7-8618-F4B0DC314B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244576D9-447C-4ED7-8361-A2FCC11D50CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2469,12 +2469,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$B$2:$B$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$B$2:$B$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>143.54</c:v>
                 </c:pt>
@@ -2514,12 +2543,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$C$2:$C$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$C$2:$C$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>165.59</c:v>
                 </c:pt>
@@ -2559,12 +2617,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$D$2:$D$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$D$2:$D$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>168.21</c:v>
                 </c:pt>
@@ -2604,12 +2691,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$E$2:$E$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$E$2:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>139.09</c:v>
                 </c:pt>
@@ -2669,18 +2785,45 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:val>
+                <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>k!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>k!$A$2:$A$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -2814,7 +2957,7 @@
         <c:axId val="421723256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14000"/>
+          <c:max val="1400"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2939,7 +3082,7 @@
         <c:crossAx val="421726864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8943,13 +9086,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
